--- a/P5_02_plantests.xlsx
+++ b/P5_02_plantests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garag\Documents\Priv\OPENCLASSROOMS-formation\P5_magone_ineta\orinoco_app_p5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC0D501-CBB2-4F26-8FEE-1AD1466F3B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B97C754-F9AF-4E01-B195-C47FB537BD4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14490" yWindow="0" windowWidth="14295" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -1052,8 +1052,8 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
